--- a/daily_generation_consumption_ratio.xlsx
+++ b/daily_generation_consumption_ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/Data-Generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\Data-Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D356DF-53C7-3044-A838-274406372BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F4C76-D1AD-41DB-938D-8EBC33AA5AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="26880" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2595" yWindow="345" windowWidth="26550" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum_montly" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="375">
   <si>
     <t>Date</t>
   </si>
@@ -1149,6 +1149,15 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>August Max</t>
+  </si>
+  <si>
+    <t>January Min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1704,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1706,22 +1715,388 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>sum_montly!$E$1</c:f>
+              <c:f>sum_montly!$E$1:$E$113</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
                   <c:v>Ratio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.293050936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.130279473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106884866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.285966887</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.551255937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.839308072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.654835574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.818838583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.165645936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.208812723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.297153961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.314682078</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.229130447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.035740631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.127438128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.415753232</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30981434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.128265999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.270803229</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.829644935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.316506884</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.007615487</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.118576229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22158743</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.792767955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.866098141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.778803093</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.396994678</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.404366983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.033654145</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.059191426</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.255190645</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.644046652</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.069917627</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.449272255</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34130476</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.02622631</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.558051863</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.894093607</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.410324559</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.519196872</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.393431503</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.247065605</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.393692086</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81885623</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.820556621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.144879791</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.365545358</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.163787491</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.625843861</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.338536474</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.306747075</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.30106781</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.291559816</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.046748981</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.300704002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.541932594</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.978417802</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.463335466</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.106894191</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.277967603</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.484693394</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.599634321</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.310644346</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.712445405</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.858051271</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.392419064</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.09772987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.272444442</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.734507341</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.848230841</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.449272111</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.454971265</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.069328901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.202716659</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.672984344</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.772967187</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.811881672</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.633365541</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.332596321</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.064875389</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.156617682</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.212481364</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.026421163</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.453122715</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.93668013</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.149185042</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.396302203</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.50693722</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.175984124</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.726473824</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.511001908</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.686915357</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.239976344</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.453664075</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.336242276</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.579360942</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.491795946</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.377988992</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.417256061</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.762468215</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.240344223</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.343828482</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.521148501</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.135216895</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.796975327</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.146743402</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.452436135</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.531417377</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.564948579</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.33048715</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.787469535</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1738,2214 +2113,772 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>sum_montly!$B$2:$B$367</c:f>
-              <c:strCache>
-                <c:ptCount val="366"/>
-                <c:pt idx="0">
-                  <c:v>01.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>02.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>03.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>05.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>06.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>07.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>08.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>09.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.01.2016</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>01.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>02.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>03.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>04.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>05.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>06.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>07.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>08.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>09.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>18.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>19.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>20.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>21.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>22.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>23.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>24.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>25.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>26.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>27.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>28.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.02.2016</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>01.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>02.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>03.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>04.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>05.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>06.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>07.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>08.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>09.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>11.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>13.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>14.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>15.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>16.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>17.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>19.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>20.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>21.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>22.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>23.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>24.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>26.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>27.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>28.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>30.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>31.03.2016</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>01.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>02.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>03.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>04.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>05.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>06.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>07.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>08.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>09.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>11.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>12.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>13.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>15.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>16.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>17.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>18.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>19.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>20.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>21.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>22.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>23.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>24.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>25.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>26.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>27.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>28.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>29.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>30.04.2016</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>01.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>02.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>03.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>04.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>05.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>06.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>07.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>08.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>09.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>10.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>11.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>12.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>13.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>14.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>15.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>16.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>17.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>18.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>19.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>20.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>21.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>22.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>23.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>24.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>25.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>26.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>27.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>28.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>29.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>30.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>31.05.2016</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>01.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>02.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>03.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>04.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>05.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>06.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>07.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>08.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>09.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>10.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>11.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>12.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>13.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>14.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>15.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>16.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>17.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>18.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>19.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>20.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>21.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>22.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>23.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>24.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>25.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>26.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>27.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>28.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>29.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>30.06.2016</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>01.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>02.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>03.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>04.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>05.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>06.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>07.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>08.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>09.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>10.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>11.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>12.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>13.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>14.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>15.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>16.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>17.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>18.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>19.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>20.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>21.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>22.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>23.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>24.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>25.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>26.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>27.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>28.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>29.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>30.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>31.07.2016</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>01.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>02.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>03.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>04.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>05.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>06.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>07.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>08.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>09.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>10.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>11.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>12.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>13.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>14.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>15.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>16.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>17.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>18.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>19.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>20.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>21.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>22.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>23.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>24.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>25.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>26.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>27.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>28.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>29.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>30.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>31.08.2016</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>01.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>02.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>03.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>04.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>05.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>06.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>07.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>08.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>09.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>10.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>11.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>12.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>13.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>14.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>15.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>16.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>17.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>18.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>19.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>20.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>21.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>22.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>23.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>24.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>25.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>26.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>27.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>28.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>29.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>30.09.2016</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>01.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>02.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>03.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>04.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>05.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>06.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>07.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>08.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>09.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>10.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>11.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>12.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>13.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>14.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>15.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>16.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>17.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>18.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>19.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>20.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>21.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>22.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>23.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>24.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>25.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>26.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>27.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>28.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>29.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>30.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>31.10.2016</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>01.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>02.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>03.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>04.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>05.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>06.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>07.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>08.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>09.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>10.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>11.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>12.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>13.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>14.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>15.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>16.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>17.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>18.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>19.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>20.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>21.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>22.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>23.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>24.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>25.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>26.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>27.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>28.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>29.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>30.11.2016</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>01.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>02.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>03.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>04.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>05.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>06.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>07.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>08.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>09.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>10.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>11.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>12.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>13.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>14.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>15.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>16.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>17.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>18.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>19.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>20.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>21.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>22.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>23.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>24.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>25.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>26.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>27.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>28.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>29.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>30.12.2016</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>31.12.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sum_montly!$E$2:$E$367</c:f>
+              <c:f>sum_montly!$E$114:$E$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
-                  <c:v>0.29305093586941661</c:v>
+                  <c:v>2.010637974100169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13027947265429368</c:v>
+                  <c:v>1.1212065321476328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10688486601919206</c:v>
+                  <c:v>1.7643874037083449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28596688682335675</c:v>
+                  <c:v>2.151003752058783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55125593690360752</c:v>
+                  <c:v>1.6609377585329532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83930807226235937</c:v>
+                  <c:v>2.4446363256194745</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65483557395420133</c:v>
+                  <c:v>2.0956041643872627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81883858292334044</c:v>
+                  <c:v>2.3275533316983941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16564593637097058</c:v>
+                  <c:v>1.7376838479028951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20881272334190251</c:v>
+                  <c:v>0.36588041964735046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29715396090782525</c:v>
+                  <c:v>0.97083226587396787</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3146820783198444</c:v>
+                  <c:v>1.3949098945859124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22913044724037979</c:v>
+                  <c:v>1.3722776871257547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0357406312215864</c:v>
+                  <c:v>1.2584822528867192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12743812770974855</c:v>
+                  <c:v>1.8440465124970069</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41575323185495239</c:v>
+                  <c:v>1.7966741884011144</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30981434031631544</c:v>
+                  <c:v>1.491918252912672</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1282659987178554</c:v>
+                  <c:v>1.9143956294398121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27080322909655224</c:v>
+                  <c:v>0.89338950618276547</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82964493502256542</c:v>
+                  <c:v>1.7116847148626779</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31650688438601204</c:v>
+                  <c:v>0.34668682032604559</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0076154874845988</c:v>
+                  <c:v>0.42100942767355493</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11857622881127737</c:v>
+                  <c:v>0.57876139407271232</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.22158742992348804</c:v>
+                  <c:v>1.2075855962095554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7927679553969309</c:v>
+                  <c:v>0.9445556209535021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86609814096782123</c:v>
+                  <c:v>1.4894343866985034</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.77880309269985892</c:v>
+                  <c:v>1.5652409859088692</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.39699467784291437</c:v>
+                  <c:v>0.26956054242591593</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.40436698285520173</c:v>
+                  <c:v>0.89497581600267295</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0336541450443797</c:v>
+                  <c:v>1.6750285209889499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.9191426255059916E-2</c:v>
+                  <c:v>1.4701313813855388</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25519064466692098</c:v>
+                  <c:v>0.337871565477873</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.64404665194266886</c:v>
+                  <c:v>0.16341530751036742</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.991762714447694E-2</c:v>
+                  <c:v>1.0888436062404556</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44927225517520664</c:v>
+                  <c:v>1.6892067073151826</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3413047596714982</c:v>
+                  <c:v>1.4839463572770331</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0262263104805041</c:v>
+                  <c:v>1.1640085873100552</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.55805186301247944</c:v>
+                  <c:v>0.82628414317111409</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.89409360700534435</c:v>
+                  <c:v>0.90896419296561215</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.41032455914130067</c:v>
+                  <c:v>0.89655744120814618</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51919687156131022</c:v>
+                  <c:v>1.0986426388883914</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3934315030852316</c:v>
+                  <c:v>0.85994492876158279</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2470656050725941</c:v>
+                  <c:v>1.3235273155573171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3936920862142379</c:v>
+                  <c:v>1.4647476698640098</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.81885622963766502</c:v>
+                  <c:v>1.0591084732316871</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.82055662074281988</c:v>
+                  <c:v>2.1938685326774454</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.14487979070608337</c:v>
+                  <c:v>2.0667197590713351</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36554535799796622</c:v>
+                  <c:v>0.83626010381427063</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1637874905550314</c:v>
+                  <c:v>0.47976425475358342</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.62584386050014973</c:v>
+                  <c:v>2.0665089695604322</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.33853647401485187</c:v>
+                  <c:v>0.68835339070499901</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.30674707497433357</c:v>
+                  <c:v>1.3734575249323415</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3010678096070463</c:v>
+                  <c:v>1.5734513937924528</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.29155981600427433</c:v>
+                  <c:v>1.3905665593815368</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0467489812150177</c:v>
+                  <c:v>1.6379358266460913</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.30070400195700314</c:v>
+                  <c:v>1.480752788871214</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5419325937707624</c:v>
+                  <c:v>1.2894214878823227</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.9784178018312254</c:v>
+                  <c:v>1.5996164512445417</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.46333546557091831</c:v>
+                  <c:v>0.50303837029873522</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.10689419098904838</c:v>
+                  <c:v>1.0719655033711308</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.27796760349123012</c:v>
+                  <c:v>0.4818573244690828</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.48469339439098469</c:v>
+                  <c:v>1.4259190747918695</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.59963432147485674</c:v>
+                  <c:v>1.8096882147845728</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3106443458437285</c:v>
+                  <c:v>1.8010043853315321</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.71244540508799359</c:v>
+                  <c:v>1.3143248881415603</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.8580512714779075</c:v>
+                  <c:v>0.26458139833496641</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3924190644070173</c:v>
+                  <c:v>1.4331112105033714</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0977298704292451</c:v>
+                  <c:v>1.5822437656684203</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.272444442255011</c:v>
+                  <c:v>1.2086447431087155</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.734507340502528</c:v>
+                  <c:v>0.82776585240375655</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.8482308406466389</c:v>
+                  <c:v>1.5982589625685886</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.44927211118270721</c:v>
+                  <c:v>0.67957419416158671</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.45497126461495241</c:v>
+                  <c:v>0.65891076221845335</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0693289010084535</c:v>
+                  <c:v>1.4318836278289173</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.20271665947627823</c:v>
+                  <c:v>1.5274781027093882</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.6729843438463337</c:v>
+                  <c:v>1.4735818612768721</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7729671867602455</c:v>
+                  <c:v>1.8833441531355213</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8118816724455433</c:v>
+                  <c:v>1.7488762176244754</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.6333655414542234</c:v>
+                  <c:v>1.3423655654004238</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3325963211073688</c:v>
+                  <c:v>1.6401790340077429</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0648753890457736</c:v>
+                  <c:v>1.6137897475267973</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1566176820740026</c:v>
+                  <c:v>0.42932363491925574</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2124813641483707</c:v>
+                  <c:v>0.64612146844796847</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0264211631415203</c:v>
+                  <c:v>0.71424909934570557</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.45312271530548093</c:v>
+                  <c:v>1.6233253559794136</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.93668012952463908</c:v>
+                  <c:v>1.1305703331507633</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1491850419790015</c:v>
+                  <c:v>0.92379130863833292</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.3963022026443803</c:v>
+                  <c:v>1.6325637385322211</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.5069372200143092</c:v>
+                  <c:v>1.9639995268261867</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1759841235722703</c:v>
+                  <c:v>1.970547968914532</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7264738236856103</c:v>
+                  <c:v>1.3879557947494261</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.51100190799160161</c:v>
+                  <c:v>1.3735428912164722</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.6869153573602129</c:v>
+                  <c:v>0.9725692739203553</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.239976344420483</c:v>
+                  <c:v>1.3450982013359929</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4536640747078626</c:v>
+                  <c:v>1.3798533046320656</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3362422760243751</c:v>
+                  <c:v>1.3535777325313565</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.57936094236195557</c:v>
+                  <c:v>1.3257902507979218</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.49179594610158844</c:v>
+                  <c:v>1.4934941046483279</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.37798899212367471</c:v>
+                  <c:v>1.4515825121080832</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.41725606054752712</c:v>
+                  <c:v>1.4858556375862839</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.76246821471276782</c:v>
+                  <c:v>0.51228095086332359</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2403442226316157</c:v>
+                  <c:v>1.4280235024931311</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.3438284823905251</c:v>
+                  <c:v>1.1075165807976537</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.5211485007793621</c:v>
+                  <c:v>1.728162114800881</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.1352168953279538</c:v>
+                  <c:v>1.6393697742224842</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.79697532726927056</c:v>
+                  <c:v>0.11722273046561864</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.1467434017611202</c:v>
+                  <c:v>1.2150370903607159</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.45243613450694692</c:v>
+                  <c:v>1.7336904674543188</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.53141737718229809</c:v>
+                  <c:v>2.0109195274905187</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.5649485791964626</c:v>
+                  <c:v>0.52117005963931551</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.3304871495132939</c:v>
+                  <c:v>1.1731314347892081</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.7874695350894094</c:v>
+                  <c:v>1.4056433403273976</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.010637974100169</c:v>
+                  <c:v>0.10971879511778343</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1212065321476328</c:v>
+                  <c:v>1.7732882974285877</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.7643874037083449</c:v>
+                  <c:v>1.445501103937568</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.151003752058783</c:v>
+                  <c:v>1.7765186664712374</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.6609377585329532</c:v>
+                  <c:v>1.5073092059398596</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4446363256194745</c:v>
+                  <c:v>1.8979987392511855</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.0956041643872627</c:v>
+                  <c:v>1.3084514843539994</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.3275533316983941</c:v>
+                  <c:v>1.4642111448100277</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.7376838479028951</c:v>
+                  <c:v>1.1378205891217885</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.36588041964735046</c:v>
+                  <c:v>0.78901798347081387</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.97083226587396787</c:v>
+                  <c:v>1.0402475383360312</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.3949098945859124</c:v>
+                  <c:v>1.8000429025143403</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.3722776871257547</c:v>
+                  <c:v>1.8814624152619479</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.2584822528867192</c:v>
+                  <c:v>1.7981516593628752</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.8440465124970069</c:v>
+                  <c:v>1.6415752679214748</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.7966741884011144</c:v>
+                  <c:v>1.4286627240302316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.491918252912672</c:v>
+                  <c:v>1.2846325452522318</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.9143956294398121</c:v>
+                  <c:v>1.0866421963683792</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.89338950618276547</c:v>
+                  <c:v>1.3554640631351067</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.7116847148626779</c:v>
+                  <c:v>1.5353449585237264</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.34668682032604559</c:v>
+                  <c:v>1.2004154080717568</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.42100942767355493</c:v>
+                  <c:v>1.4531018821504182</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.57876139407271232</c:v>
+                  <c:v>1.6040702366914397</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2075855962095554</c:v>
+                  <c:v>1.1884954491004123</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.9445556209535021</c:v>
+                  <c:v>1.0709816314784117</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4894343866985034</c:v>
+                  <c:v>1.2390239177776892</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.5652409859088692</c:v>
+                  <c:v>1.830028231238358</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.26956054242591593</c:v>
+                  <c:v>1.6716425722094157</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.89497581600267295</c:v>
+                  <c:v>1.5175302683561738</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.6750285209889499</c:v>
+                  <c:v>1.4732121332886181</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.4701313813855388</c:v>
+                  <c:v>1.2527161472736881</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.337871565477873</c:v>
+                  <c:v>1.7498563069145805</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.16341530751036742</c:v>
+                  <c:v>1.8349521343653288</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.0888436062404556</c:v>
+                  <c:v>1.7001683160295251</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.6892067073151826</c:v>
+                  <c:v>1.4508435325106404</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.4839463572770331</c:v>
+                  <c:v>1.094224281152961</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.1640085873100552</c:v>
+                  <c:v>0.14661596696146792</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.82628414317111409</c:v>
+                  <c:v>0.22957715548536628</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.90896419296561215</c:v>
+                  <c:v>6.5125664174488826E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.89655744120814618</c:v>
+                  <c:v>0.72847130750880174</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.0986426388883914</c:v>
+                  <c:v>0.75757368459826546</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.85994492876158279</c:v>
+                  <c:v>1.604205494588874</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.3235273155573171</c:v>
+                  <c:v>1.0738690116503382</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.4647476698640098</c:v>
+                  <c:v>1.3567219012296272</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.0591084732316871</c:v>
+                  <c:v>1.2376804915059334</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.1938685326774454</c:v>
+                  <c:v>1.4269342521202204</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.0667197590713351</c:v>
+                  <c:v>1.0495302558657689</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.83626010381427063</c:v>
+                  <c:v>1.3590949721487848</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.47976425475358342</c:v>
+                  <c:v>1.4039821998175896</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.0665089695604322</c:v>
+                  <c:v>1.4054253310675509</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.68835339070499901</c:v>
+                  <c:v>1.0556454844953425</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.3734575249323415</c:v>
+                  <c:v>0.17258362303803726</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.5734513937924528</c:v>
+                  <c:v>0.9334589228561424</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.3905665593815368</c:v>
+                  <c:v>0.28857310182659029</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.6379358266460913</c:v>
+                  <c:v>0.94907991663776603</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.480752788871214</c:v>
+                  <c:v>0.31249660810728008</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.2894214878823227</c:v>
+                  <c:v>0.23156751371292555</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.5996164512445417</c:v>
+                  <c:v>0.50550821439693516</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.50303837029873522</c:v>
+                  <c:v>0.8983270617104212</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.0719655033711308</c:v>
+                  <c:v>0.84513133185670264</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.4818573244690828</c:v>
+                  <c:v>0.82049686260290378</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.4259190747918695</c:v>
+                  <c:v>0.56794546137280988</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.8096882147845728</c:v>
+                  <c:v>1.1599559496253806</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.8010043853315321</c:v>
+                  <c:v>0.72296289512246181</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.3143248881415603</c:v>
+                  <c:v>0.5618362481242527</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.26458139833496641</c:v>
+                  <c:v>1.1354981097892294</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.4331112105033714</c:v>
+                  <c:v>0.76220054235329981</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.5822437656684203</c:v>
+                  <c:v>0.29876354109347153</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.2086447431087155</c:v>
+                  <c:v>0.49076487880636749</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.82776585240375655</c:v>
+                  <c:v>0.70800915602272463</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.5982589625685886</c:v>
+                  <c:v>0.38341845734174912</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.67957419416158671</c:v>
+                  <c:v>1.1881194777950814</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.65891076221845335</c:v>
+                  <c:v>0.68691496157377852</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.4318836278289173</c:v>
+                  <c:v>1.0516274213246346</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.5274781027093882</c:v>
+                  <c:v>0.29402573437816615</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.4735818612768721</c:v>
+                  <c:v>0.18080599884637569</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.8833441531355213</c:v>
+                  <c:v>0.39780511218829029</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.7488762176244754</c:v>
+                  <c:v>1.1114917178353574</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.3423655654004238</c:v>
+                  <c:v>0.13824622454153926</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.6401790340077429</c:v>
+                  <c:v>0.7256364184985854</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.6137897475267973</c:v>
+                  <c:v>1.0177364071695263</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.42932363491925574</c:v>
+                  <c:v>1.1120359784331706</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.64612146844796847</c:v>
+                  <c:v>0.23667481418711367</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.71424909934570557</c:v>
+                  <c:v>0.71374863372742692</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.6233253559794136</c:v>
+                  <c:v>1.0524353247066147</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.1305703331507633</c:v>
+                  <c:v>0.67550035992492996</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.92379130863833292</c:v>
+                  <c:v>4.6276486981125395E-2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.6325637385322211</c:v>
+                  <c:v>0.40830156306657944</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.9639995268261867</c:v>
+                  <c:v>0.91438494871079312</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.970547968914532</c:v>
+                  <c:v>1.1405638115600636</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.3879557947494261</c:v>
+                  <c:v>0.50884060950174481</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.3735428912164722</c:v>
+                  <c:v>0.16157467898548802</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.9725692739203553</c:v>
+                  <c:v>0.29044603333746971</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.3450982013359929</c:v>
+                  <c:v>0.2015901217414566</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.3798533046320656</c:v>
+                  <c:v>1.0334286934764338</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.3535777325313565</c:v>
+                  <c:v>0.75996371818450914</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.3257902507979218</c:v>
+                  <c:v>6.9293492900449866E-2</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.4934941046483279</c:v>
+                  <c:v>0.29226398989160374</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.4515825121080832</c:v>
+                  <c:v>0.65005955628224987</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.4858556375862839</c:v>
+                  <c:v>0.10883226548444884</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.51228095086332359</c:v>
+                  <c:v>0.85282343127387039</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>1.4280235024931311</c:v>
+                  <c:v>0.95721052066523293</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1.1075165807976537</c:v>
+                  <c:v>0.81307273972278904</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.728162114800881</c:v>
+                  <c:v>0.86424317711947773</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1.6393697742224842</c:v>
+                  <c:v>0.5121723897989735</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.11722273046561864</c:v>
+                  <c:v>0.19378866939650505</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1.2150370903607159</c:v>
+                  <c:v>0.2173816391125557</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1.7336904674543188</c:v>
+                  <c:v>5.5418613709771337E-2</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.0109195274905187</c:v>
+                  <c:v>0.42745927146030455</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.52117005963931551</c:v>
+                  <c:v>1.024491882899849</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1.1731314347892081</c:v>
+                  <c:v>0.95366482233990246</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.4056433403273976</c:v>
+                  <c:v>0.32037559609159838</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.10971879511778343</c:v>
+                  <c:v>0.31437724956624252</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1.7732882974285877</c:v>
+                  <c:v>0.439421616735587</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1.445501103937568</c:v>
+                  <c:v>0.54033727107687091</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1.7765186664712374</c:v>
+                  <c:v>0.88057176909393797</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1.5073092059398596</c:v>
+                  <c:v>0.93474704466182024</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.8979987392511855</c:v>
+                  <c:v>0.78448762770878466</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1.3084514843539994</c:v>
+                  <c:v>0.92728929131694227</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1.4642111448100277</c:v>
+                  <c:v>0.94475170921040175</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.1378205891217885</c:v>
+                  <c:v>0.82909317310660124</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.78901798347081387</c:v>
+                  <c:v>0.23783725024829</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.0402475383360312</c:v>
+                  <c:v>6.4765027355567772E-2</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.8000429025143403</c:v>
+                  <c:v>0.71109648217325427</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1.8814624152619479</c:v>
+                  <c:v>0.15492730203634877</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1.7981516593628752</c:v>
+                  <c:v>0.60198759157836901</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1.6415752679214748</c:v>
+                  <c:v>0.73139042122571307</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1.4286627240302316</c:v>
+                  <c:v>0.7040735162836711</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1.2846325452522318</c:v>
+                  <c:v>0.33234236725663718</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1.0866421963683792</c:v>
+                  <c:v>0.59626527789515438</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1.3554640631351067</c:v>
+                  <c:v>0.85953688278936813</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1.5353449585237264</c:v>
+                  <c:v>0.9880186902234902</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1.2004154080717568</c:v>
+                  <c:v>0.73374963365451873</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1.4531018821504182</c:v>
+                  <c:v>0.18630869320143542</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1.6040702366914397</c:v>
+                  <c:v>0.34889967783239417</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.1884954491004123</c:v>
+                  <c:v>6.2230942035318385E-2</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1.0709816314784117</c:v>
+                  <c:v>0.74908010752732734</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.2390239177776892</c:v>
+                  <c:v>0.69832679983866308</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.830028231238358</c:v>
+                  <c:v>0.39426688502562207</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.6716425722094157</c:v>
+                  <c:v>0.77081363024102256</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.5175302683561738</c:v>
+                  <c:v>0.914816398094771</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.4732121332886181</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>1.2527161472736881</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1.7498563069145805</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>1.8349521343653288</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>1.7001683160295251</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>1.4508435325106404</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>1.094224281152961</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.14661596696146792</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0.22957715548536628</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>6.5125664174488826E-2</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0.72847130750880174</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0.75757368459826546</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>1.604205494588874</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>1.0738690116503382</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>1.3567219012296272</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>1.2376804915059334</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>1.4269342521202204</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1.0495302558657689</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>1.3590949721487848</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>1.4039821998175896</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>1.4054253310675509</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>1.0556454844953425</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0.17258362303803726</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0.9334589228561424</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0.28857310182659029</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0.94907991663776603</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0.31249660810728008</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0.23156751371292555</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0.50550821439693516</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0.8983270617104212</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0.84513133185670264</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0.82049686260290378</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0.56794546137280988</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>1.1599559496253806</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0.72296289512246181</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0.5618362481242527</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>1.1354981097892294</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0.76220054235329981</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0.29876354109347153</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0.49076487880636749</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0.70800915602272463</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0.38341845734174912</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>1.1881194777950814</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0.68691496157377852</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>1.0516274213246346</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0.29402573437816615</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0.18080599884637569</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0.39780511218829029</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>1.1114917178353574</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>0.13824622454153926</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>0.7256364184985854</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>1.0177364071695263</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>1.1120359784331706</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0.23667481418711367</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0.71374863372742692</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>1.0524353247066147</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0.67550035992492996</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>4.6276486981125395E-2</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0.40830156306657944</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0.91438494871079312</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>1.1405638115600636</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0.50884060950174481</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>0.16157467898548802</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>0.29044603333746971</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>0.2015901217414566</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>1.0334286934764338</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>0.75996371818450914</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>6.9293492900449866E-2</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>0.29226398989160374</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>0.65005955628224987</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>0.10883226548444884</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>0.85282343127387039</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>0.95721052066523293</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>0.81307273972278904</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>0.86424317711947773</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>0.5121723897989735</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>0.19378866939650505</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>0.2173816391125557</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>5.5418613709771337E-2</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0.42745927146030455</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>1.024491882899849</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>0.95366482233990246</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>0.32037559609159838</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0.31437724956624252</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0.439421616735587</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0.54033727107687091</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>0.88057176909393797</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>0.93474704466182024</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>0.78448762770878466</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>0.92728929131694227</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>0.94475170921040175</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>0.82909317310660124</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0.23783725024829</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>6.4765027355567772E-2</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0.71109648217325427</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0.15492730203634877</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0.60198759157836901</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0.73139042122571307</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0.7040735162836711</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0.33234236725663718</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0.59626527789515438</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0.85953688278936813</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0.9880186902234902</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0.73374963365451873</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0.18630869320143542</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0.34889967783239417</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>6.2230942035318385E-2</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0.74908010752732734</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0.69832679983866308</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0.39426688502562207</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0.77081363024102256</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0.914816398094771</c:v>
-                </c:pt>
-                <c:pt idx="365">
                   <c:v>0.81731792495585065</c:v>
                 </c:pt>
               </c:numCache>
@@ -3954,7 +2887,82 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4839-8648-B81D-06B4561991C7}"/>
+              <c16:uniqueId val="{00000000-D3B0-4A84-A57B-4712FCBFB053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sum_montly!$F$1:$F$113</c:f>
+              <c:strCache>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.839308072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sum_montly!$F$114:$F$367</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3B0-4A84-A57B-4712FCBFB053}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3967,17 +2975,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1458878848"/>
-        <c:axId val="1458880576"/>
+        <c:axId val="1647878735"/>
+        <c:axId val="58631599"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1458878848"/>
+        <c:axId val="1647878735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4014,7 +3021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458880576"/>
+        <c:crossAx val="58631599"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4022,7 +3029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1458880576"/>
+        <c:axId val="58631599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,7 +3080,1387 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458878848"/>
+        <c:crossAx val="1647878735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sum_montly!$E$2:$E$367</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="366"/>
+                <c:pt idx="0">
+                  <c:v>0.29305093586941661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13027947265429368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10688486601919206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28596688682335675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55125593690360752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83930807226235937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65483557395420133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81883858292334044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16564593637097058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20881272334190251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29715396090782525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3146820783198444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22913044724037979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0357406312215864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12743812770974855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41575323185495239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30981434031631544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1282659987178554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27080322909655224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82964493502256542</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31650688438601204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0076154874845988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11857622881127737</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22158742992348804</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7927679553969309</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86609814096782123</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77880309269985892</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39699467784291437</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.40436698285520173</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0336541450443797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.9191426255059916E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25519064466692098</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64404665194266886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.991762714447694E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44927225517520664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3413047596714982</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0262263104805041</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55805186301247944</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.89409360700534435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41032455914130067</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51919687156131022</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3934315030852316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2470656050725941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3936920862142379</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.81885622963766502</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.82055662074281988</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14487979070608337</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36554535799796622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1637874905550314</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62584386050014973</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.33853647401485187</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.30674707497433357</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3010678096070463</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29155981600427433</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0467489812150177</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.30070400195700314</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5419325937707624</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9784178018312254</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46333546557091831</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10689419098904838</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27796760349123012</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.48469339439098469</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59963432147485674</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3106443458437285</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.71244540508799359</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.8580512714779075</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3924190644070173</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0977298704292451</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.272444442255011</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.734507340502528</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.8482308406466389</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.44927211118270721</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.45497126461495241</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0693289010084535</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.20271665947627823</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6729843438463337</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7729671867602455</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8118816724455433</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6333655414542234</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3325963211073688</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0648753890457736</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1566176820740026</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2124813641483707</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0264211631415203</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.45312271530548093</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.93668012952463908</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1491850419790015</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3963022026443803</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5069372200143092</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1759841235722703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7264738236856103</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.51100190799160161</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.6869153573602129</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.239976344420483</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4536640747078626</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3362422760243751</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.57936094236195557</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49179594610158844</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.37798899212367471</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41725606054752712</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.76246821471276782</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.2403442226316157</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3438284823905251</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5211485007793621</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1352168953279538</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.79697532726927056</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1467434017611202</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.45243613450694692</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.53141737718229809</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.5649485791964626</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.3304871495132939</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.7874695350894094</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.010637974100169</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1212065321476328</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7643874037083449</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.151003752058783</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6609377585329532</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.4446363256194745</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.0956041643872627</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.3275533316983941</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.7376838479028951</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.36588041964735046</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.97083226587396787</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.3949098945859124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.3722776871257547</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2584822528867192</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.8440465124970069</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7966741884011144</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.491918252912672</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.9143956294398121</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.89338950618276547</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7116847148626779</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.34668682032604559</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.42100942767355493</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.57876139407271232</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.2075855962095554</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.9445556209535021</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.4894343866985034</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.5652409859088692</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.26956054242591593</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.89497581600267295</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.6750285209889499</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.4701313813855388</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.337871565477873</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.16341530751036742</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.0888436062404556</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.6892067073151826</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4839463572770331</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.1640085873100552</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.82628414317111409</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.90896419296561215</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.89655744120814618</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.0986426388883914</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.85994492876158279</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.3235273155573171</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.4647476698640098</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0591084732316871</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.1938685326774454</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.0667197590713351</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.83626010381427063</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.47976425475358342</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.0665089695604322</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.68835339070499901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.3734575249323415</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.5734513937924528</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.3905665593815368</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.6379358266460913</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.480752788871214</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.2894214878823227</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.5996164512445417</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.50303837029873522</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0719655033711308</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.4818573244690828</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.4259190747918695</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.8096882147845728</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.8010043853315321</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.3143248881415603</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.26458139833496641</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.4331112105033714</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.5822437656684203</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.2086447431087155</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.82776585240375655</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.5982589625685886</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.67957419416158671</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.65891076221845335</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.4318836278289173</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.5274781027093882</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.4735818612768721</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.8833441531355213</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.7488762176244754</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.3423655654004238</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.6401790340077429</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.6137897475267973</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.42932363491925574</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.64612146844796847</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.71424909934570557</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.6233253559794136</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.1305703331507633</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.92379130863833292</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.6325637385322211</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.9639995268261867</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.970547968914532</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.3879557947494261</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.3735428912164722</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.9725692739203553</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.3450982013359929</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.3798533046320656</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.3535777325313565</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.3257902507979218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.4934941046483279</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.4515825121080832</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.4858556375862839</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.51228095086332359</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.4280235024931311</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.1075165807976537</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.728162114800881</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.6393697742224842</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.11722273046561864</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.2150370903607159</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.7336904674543188</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.0109195274905187</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.52117005963931551</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.1731314347892081</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.4056433403273976</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.10971879511778343</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.7732882974285877</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.445501103937568</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.7765186664712374</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.5073092059398596</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.8979987392511855</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.3084514843539994</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.4642111448100277</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.1378205891217885</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.78901798347081387</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.0402475383360312</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.8000429025143403</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.8814624152619479</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.7981516593628752</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.6415752679214748</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.4286627240302316</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.2846325452522318</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.0866421963683792</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.3554640631351067</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.5353449585237264</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.2004154080717568</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.4531018821504182</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.6040702366914397</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.1884954491004123</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.0709816314784117</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.2390239177776892</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.830028231238358</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.6716425722094157</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.5175302683561738</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.4732121332886181</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.2527161472736881</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.7498563069145805</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.8349521343653288</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.7001683160295251</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.4508435325106404</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.094224281152961</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.14661596696146792</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.22957715548536628</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>6.5125664174488826E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.72847130750880174</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.75757368459826546</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.604205494588874</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.0738690116503382</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.3567219012296272</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.2376804915059334</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.4269342521202204</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.0495302558657689</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.3590949721487848</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.4039821998175896</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.4054253310675509</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.0556454844953425</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.17258362303803726</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.9334589228561424</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.28857310182659029</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.94907991663776603</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.31249660810728008</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.23156751371292555</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.50550821439693516</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.8983270617104212</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.84513133185670264</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.82049686260290378</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.56794546137280988</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.1599559496253806</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.72296289512246181</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.5618362481242527</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.1354981097892294</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.76220054235329981</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.29876354109347153</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.49076487880636749</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.70800915602272463</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.38341845734174912</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.1881194777950814</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.68691496157377852</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.0516274213246346</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.29402573437816615</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.18080599884637569</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.39780511218829029</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.1114917178353574</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.13824622454153926</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.7256364184985854</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.0177364071695263</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.1120359784331706</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.23667481418711367</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.71374863372742692</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.0524353247066147</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.67550035992492996</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4.6276486981125395E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.40830156306657944</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.91438494871079312</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.1405638115600636</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.50884060950174481</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.16157467898548802</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.29044603333746971</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.2015901217414566</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.0334286934764338</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.75996371818450914</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>6.9293492900449866E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.29226398989160374</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.65005955628224987</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.10883226548444884</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.85282343127387039</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.95721052066523293</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.81307273972278904</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.86424317711947773</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.5121723897989735</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.19378866939650505</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.2173816391125557</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5.5418613709771337E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.42745927146030455</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.024491882899849</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.95366482233990246</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.32037559609159838</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.31437724956624252</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.439421616735587</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.54033727107687091</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.88057176909393797</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.93474704466182024</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.78448762770878466</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.92728929131694227</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.94475170921040175</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.82909317310660124</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.23783725024829</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>6.4765027355567772E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.71109648217325427</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.15492730203634877</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.60198759157836901</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.73139042122571307</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.7040735162836711</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.33234236725663718</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.59626527789515438</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.85953688278936813</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.9880186902234902</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.73374963365451873</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.18630869320143542</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.34889967783239417</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>6.2230942035318385E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.74908010752732734</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.69832679983866308</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.39426688502562207</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.77081363024102256</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.914816398094771</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.81731792495585065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9E6-4A57-94DD-996E33DE62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1934270271"/>
+        <c:axId val="1817142559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1934270271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1817142559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1817142559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934270271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4129,7 +4516,513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sum_montly!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sum_montly!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.29305093586941661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13027947265429368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10688486601919206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28596688682335675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55125593690360752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83930807226235937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65483557395420133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81883858292334044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16564593637097058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20881272334190251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29715396090782525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF6D-4854-A9FC-3B89C8843177}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sum_montly!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="101600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sum_montly!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83930807226235937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF6D-4854-A9FC-3B89C8843177}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1924975903"/>
+        <c:axId val="1639827695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1924975903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639827695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1639827695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924975903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4685,27 +5578,1046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E338B27C-FDDC-BE5B-C293-982BE9F591D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9952F8-9E0E-10D1-6F91-5D7E06D4F56C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4718,6 +6630,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E603DFAA-BE8B-94CA-7803-EBA696D64AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D138728F-491D-1C7F-15CE-12567A3A5E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5023,21 +7007,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I367"/>
+  <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5050,8 +7034,11 @@
       <c r="E1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5067,17 +7054,12 @@
       <c r="E2">
         <v>0.29305093586941661</v>
       </c>
-      <c r="G2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H2">
-        <v>2.7874695350894099</v>
-      </c>
-      <c r="I2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5093,17 +7075,21 @@
       <c r="E3">
         <v>0.13027947265429368</v>
       </c>
-      <c r="G3" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3">
-        <v>4.6276486981125402E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K3">
+        <v>2.7874695350894099</v>
+      </c>
+      <c r="L3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5119,8 +7105,21 @@
       <c r="E4">
         <v>0.10688486601919206</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4">
+        <v>4.6276486981125402E-2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5136,8 +7135,12 @@
       <c r="E5">
         <v>0.28596688682335675</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5153,8 +7156,15 @@
       <c r="E6">
         <v>0.55125593690360752</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5170,8 +7180,17 @@
       <c r="E7">
         <v>0.83930807226235937</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0.83930807226235937</v>
+      </c>
+      <c r="J7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K7">
+        <v>5.9191426255059902E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5187,8 +7206,12 @@
       <c r="E8">
         <v>0.65483557395420133</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5204,8 +7227,12 @@
       <c r="E9">
         <v>0.81883858292334044</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5221,8 +7248,12 @@
       <c r="E10">
         <v>0.16564593637097058</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5238,8 +7269,12 @@
       <c r="E11">
         <v>0.20881272334190251</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5255,8 +7290,12 @@
       <c r="E12">
         <v>0.29715396090782525</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5273,7 +7312,7 @@
         <v>0.3146820783198444</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5290,7 +7329,7 @@
         <v>0.22913044724037979</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5307,7 +7346,7 @@
         <v>1.0357406312215864</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5324,7 +7363,7 @@
         <v>0.12743812770974855</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5341,7 +7380,7 @@
         <v>0.41575323185495239</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5358,7 +7397,7 @@
         <v>0.30981434031631544</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5375,7 +7414,7 @@
         <v>1.1282659987178554</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5392,7 +7431,7 @@
         <v>0.27080322909655224</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5409,7 +7448,7 @@
         <v>0.82964493502256542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5426,7 +7465,7 @@
         <v>0.31650688438601204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5443,7 +7482,7 @@
         <v>1.0076154874845988</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5460,7 +7499,7 @@
         <v>0.11857622881127737</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5477,7 +7516,7 @@
         <v>0.22158742992348804</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5494,7 +7533,7 @@
         <v>0.7927679553969309</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5511,7 +7550,7 @@
         <v>0.86609814096782123</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5528,7 +7567,7 @@
         <v>0.77880309269985892</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5545,7 +7584,7 @@
         <v>0.39699467784291437</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5562,7 +7601,7 @@
         <v>0.40436698285520173</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5579,7 +7618,7 @@
         <v>1.0336541450443797</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5596,7 +7635,7 @@
         <v>5.9191426255059916E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5613,7 +7652,7 @@
         <v>0.25519064466692098</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5630,7 +7669,7 @@
         <v>0.64404665194266886</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5647,7 +7686,7 @@
         <v>6.991762714447694E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5664,7 +7703,7 @@
         <v>0.44927225517520664</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5681,7 +7720,7 @@
         <v>0.3413047596714982</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5698,7 +7737,7 @@
         <v>1.0262263104805041</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5715,7 +7754,7 @@
         <v>0.55805186301247944</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5732,7 +7771,7 @@
         <v>0.89409360700534435</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5749,7 +7788,7 @@
         <v>0.41032455914130067</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5766,7 +7805,7 @@
         <v>0.51919687156131022</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5783,7 +7822,7 @@
         <v>1.3934315030852316</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5800,7 +7839,7 @@
         <v>1.2470656050725941</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5817,7 +7856,7 @@
         <v>0.3936920862142379</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5834,7 +7873,7 @@
         <v>0.81885622963766502</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5851,7 +7890,7 @@
         <v>0.82055662074281988</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5868,7 +7907,7 @@
         <v>0.14487979070608337</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5885,7 +7924,7 @@
         <v>0.36554535799796622</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5902,7 +7941,7 @@
         <v>1.1637874905550314</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5919,7 +7958,7 @@
         <v>0.62584386050014973</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5936,7 +7975,7 @@
         <v>0.33853647401485187</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5953,7 +7992,7 @@
         <v>0.30674707497433357</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5970,7 +8009,7 @@
         <v>1.3010678096070463</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5987,7 +8026,7 @@
         <v>0.29155981600427433</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6004,7 +8043,7 @@
         <v>1.0467489812150177</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6021,7 +8060,7 @@
         <v>0.30070400195700314</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6038,7 +8077,7 @@
         <v>1.5419325937707624</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6055,7 +8094,7 @@
         <v>0.9784178018312254</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6072,7 +8111,7 @@
         <v>0.46333546557091831</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6089,7 +8128,7 @@
         <v>0.10689419098904838</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6106,7 +8145,7 @@
         <v>0.27796760349123012</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6123,7 +8162,7 @@
         <v>0.48469339439098469</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6140,7 +8179,7 @@
         <v>0.59963432147485674</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6157,7 +8196,7 @@
         <v>1.3106443458437285</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6174,7 +8213,7 @@
         <v>0.71244540508799359</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6191,7 +8230,7 @@
         <v>0.8580512714779075</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6208,7 +8247,7 @@
         <v>1.3924190644070173</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6225,7 +8264,7 @@
         <v>1.0977298704292451</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6242,7 +8281,7 @@
         <v>1.272444442255011</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6259,7 +8298,7 @@
         <v>1.734507340502528</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6276,7 +8315,7 @@
         <v>0.8482308406466389</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6293,7 +8332,7 @@
         <v>0.44927211118270721</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6310,7 +8349,7 @@
         <v>0.45497126461495241</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6327,7 +8366,7 @@
         <v>1.0693289010084535</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6344,7 +8383,7 @@
         <v>0.20271665947627823</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6361,7 +8400,7 @@
         <v>1.6729843438463337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6378,7 +8417,7 @@
         <v>1.7729671867602455</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6395,7 +8434,7 @@
         <v>1.8118816724455433</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6412,7 +8451,7 @@
         <v>1.6333655414542234</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6429,7 +8468,7 @@
         <v>1.3325963211073688</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6446,7 +8485,7 @@
         <v>1.0648753890457736</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6463,7 +8502,7 @@
         <v>1.1566176820740026</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6480,7 +8519,7 @@
         <v>1.2124813641483707</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6497,7 +8536,7 @@
         <v>1.0264211631415203</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6514,7 +8553,7 @@
         <v>0.45312271530548093</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6531,7 +8570,7 @@
         <v>0.93668012952463908</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6548,7 +8587,7 @@
         <v>1.1491850419790015</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6565,7 +8604,7 @@
         <v>1.3963022026443803</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6582,7 +8621,7 @@
         <v>1.5069372200143092</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6599,7 +8638,7 @@
         <v>1.1759841235722703</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6616,7 +8655,7 @@
         <v>1.7264738236856103</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6633,7 +8672,7 @@
         <v>0.51100190799160161</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6650,7 +8689,7 @@
         <v>1.6869153573602129</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6667,7 +8706,7 @@
         <v>1.239976344420483</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6684,7 +8723,7 @@
         <v>1.4536640747078626</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6701,7 +8740,7 @@
         <v>1.3362422760243751</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6718,7 +8757,7 @@
         <v>0.57936094236195557</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6735,7 +8774,7 @@
         <v>0.49179594610158844</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6752,7 +8791,7 @@
         <v>0.37798899212367471</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6769,7 +8808,7 @@
         <v>0.41725606054752712</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6786,7 +8825,7 @@
         <v>0.76246821471276782</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6803,7 +8842,7 @@
         <v>2.2403442226316157</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6820,7 +8859,7 @@
         <v>1.3438284823905251</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6837,7 +8876,7 @@
         <v>1.5211485007793621</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6854,7 +8893,7 @@
         <v>1.1352168953279538</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6871,7 +8910,7 @@
         <v>0.79697532726927056</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6888,7 +8927,7 @@
         <v>1.1467434017611202</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6905,7 +8944,7 @@
         <v>0.45243613450694692</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6922,7 +8961,7 @@
         <v>0.53141737718229809</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6939,7 +8978,7 @@
         <v>1.5649485791964626</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6956,7 +8995,7 @@
         <v>2.3304871495132939</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6973,7 +9012,7 @@
         <v>2.7874695350894094</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6990,7 +9029,7 @@
         <v>2.010637974100169</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7007,7 +9046,7 @@
         <v>1.1212065321476328</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7024,7 +9063,7 @@
         <v>1.7643874037083449</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7041,7 +9080,7 @@
         <v>2.151003752058783</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7058,7 +9097,7 @@
         <v>1.6609377585329532</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7075,7 +9114,7 @@
         <v>2.4446363256194745</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7092,7 +9131,7 @@
         <v>2.0956041643872627</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7109,7 +9148,7 @@
         <v>2.3275533316983941</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7126,7 +9165,7 @@
         <v>1.7376838479028951</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7143,7 +9182,7 @@
         <v>0.36588041964735046</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7160,7 +9199,7 @@
         <v>0.97083226587396787</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7177,7 +9216,7 @@
         <v>1.3949098945859124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7194,7 +9233,7 @@
         <v>1.3722776871257547</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7211,7 +9250,7 @@
         <v>1.2584822528867192</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7228,7 +9267,7 @@
         <v>1.8440465124970069</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7245,7 +9284,7 @@
         <v>1.7966741884011144</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7262,7 +9301,7 @@
         <v>1.491918252912672</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7279,7 +9318,7 @@
         <v>1.9143956294398121</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7296,7 +9335,7 @@
         <v>0.89338950618276547</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7313,7 +9352,7 @@
         <v>1.7116847148626779</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7330,7 +9369,7 @@
         <v>0.34668682032604559</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7347,7 +9386,7 @@
         <v>0.42100942767355493</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7364,7 +9403,7 @@
         <v>0.57876139407271232</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7381,7 +9420,7 @@
         <v>1.2075855962095554</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7398,7 +9437,7 @@
         <v>0.9445556209535021</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7415,7 +9454,7 @@
         <v>1.4894343866985034</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7432,7 +9471,7 @@
         <v>1.5652409859088692</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7449,7 +9488,7 @@
         <v>0.26956054242591593</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7466,7 +9505,7 @@
         <v>0.89497581600267295</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7483,7 +9522,7 @@
         <v>1.6750285209889499</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7500,7 +9539,7 @@
         <v>1.4701313813855388</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7517,7 +9556,7 @@
         <v>0.337871565477873</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7534,7 +9573,7 @@
         <v>0.16341530751036742</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7551,7 +9590,7 @@
         <v>1.0888436062404556</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7568,7 +9607,7 @@
         <v>1.6892067073151826</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7585,7 +9624,7 @@
         <v>1.4839463572770331</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7602,7 +9641,7 @@
         <v>1.1640085873100552</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7619,7 +9658,7 @@
         <v>0.82628414317111409</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7636,7 +9675,7 @@
         <v>0.90896419296561215</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7653,7 +9692,7 @@
         <v>0.89655744120814618</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7670,7 +9709,7 @@
         <v>1.0986426388883914</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7687,7 +9726,7 @@
         <v>0.85994492876158279</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7704,7 +9743,7 @@
         <v>1.3235273155573171</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7721,7 +9760,7 @@
         <v>1.4647476698640098</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7738,7 +9777,7 @@
         <v>1.0591084732316871</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7755,7 +9794,7 @@
         <v>2.1938685326774454</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7772,7 +9811,7 @@
         <v>2.0667197590713351</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7789,7 +9828,7 @@
         <v>0.83626010381427063</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7806,7 +9845,7 @@
         <v>0.47976425475358342</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7823,7 +9862,7 @@
         <v>2.0665089695604322</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7840,7 +9879,7 @@
         <v>0.68835339070499901</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7857,7 +9896,7 @@
         <v>1.3734575249323415</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -7874,7 +9913,7 @@
         <v>1.5734513937924528</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7891,7 +9930,7 @@
         <v>1.3905665593815368</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7908,7 +9947,7 @@
         <v>1.6379358266460913</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7925,7 +9964,7 @@
         <v>1.480752788871214</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7942,7 +9981,7 @@
         <v>1.2894214878823227</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7959,7 +9998,7 @@
         <v>1.5996164512445417</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7976,7 +10015,7 @@
         <v>0.50303837029873522</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7993,7 +10032,7 @@
         <v>1.0719655033711308</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8010,7 +10049,7 @@
         <v>0.4818573244690828</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8027,7 +10066,7 @@
         <v>1.4259190747918695</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8044,7 +10083,7 @@
         <v>1.8096882147845728</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8061,7 +10100,7 @@
         <v>1.8010043853315321</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8078,7 +10117,7 @@
         <v>1.3143248881415603</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8095,7 +10134,7 @@
         <v>0.26458139833496641</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8112,7 +10151,7 @@
         <v>1.4331112105033714</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8129,7 +10168,7 @@
         <v>1.5822437656684203</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8146,7 +10185,7 @@
         <v>1.2086447431087155</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8163,7 +10202,7 @@
         <v>0.82776585240375655</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8180,7 +10219,7 @@
         <v>1.5982589625685886</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8197,7 +10236,7 @@
         <v>0.67957419416158671</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -8214,7 +10253,7 @@
         <v>0.65891076221845335</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -8231,7 +10270,7 @@
         <v>1.4318836278289173</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -8248,7 +10287,7 @@
         <v>1.5274781027093882</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -8265,7 +10304,7 @@
         <v>1.4735818612768721</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -8282,7 +10321,7 @@
         <v>1.8833441531355213</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -8299,7 +10338,7 @@
         <v>1.7488762176244754</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -8316,7 +10355,7 @@
         <v>1.3423655654004238</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -8333,7 +10372,7 @@
         <v>1.6401790340077429</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8350,7 +10389,7 @@
         <v>1.6137897475267973</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8367,7 +10406,7 @@
         <v>0.42932363491925574</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8384,7 +10423,7 @@
         <v>0.64612146844796847</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -8401,7 +10440,7 @@
         <v>0.71424909934570557</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8418,7 +10457,7 @@
         <v>1.6233253559794136</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -8435,7 +10474,7 @@
         <v>1.1305703331507633</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -8452,7 +10491,7 @@
         <v>0.92379130863833292</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -8469,7 +10508,7 @@
         <v>1.6325637385322211</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -8486,7 +10525,7 @@
         <v>1.9639995268261867</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8503,7 +10542,7 @@
         <v>1.970547968914532</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8520,7 +10559,7 @@
         <v>1.3879557947494261</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8537,7 +10576,7 @@
         <v>1.3735428912164722</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8554,7 +10593,7 @@
         <v>0.9725692739203553</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8571,7 +10610,7 @@
         <v>1.3450982013359929</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8588,7 +10627,7 @@
         <v>1.3798533046320656</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8605,7 +10644,7 @@
         <v>1.3535777325313565</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8622,7 +10661,7 @@
         <v>1.3257902507979218</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8639,7 +10678,7 @@
         <v>1.4934941046483279</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8656,7 +10695,7 @@
         <v>1.4515825121080832</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8673,7 +10712,7 @@
         <v>1.4858556375862839</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8690,7 +10729,7 @@
         <v>0.51228095086332359</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8707,7 +10746,7 @@
         <v>1.4280235024931311</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8724,7 +10763,7 @@
         <v>1.1075165807976537</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8741,7 +10780,7 @@
         <v>1.728162114800881</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8758,7 +10797,7 @@
         <v>1.6393697742224842</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8775,7 +10814,7 @@
         <v>0.11722273046561864</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8792,7 +10831,7 @@
         <v>1.2150370903607159</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8809,7 +10848,7 @@
         <v>1.7336904674543188</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8826,7 +10865,7 @@
         <v>2.0109195274905187</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8843,7 +10882,7 @@
         <v>0.52117005963931551</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8860,7 +10899,7 @@
         <v>1.1731314347892081</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8877,7 +10916,7 @@
         <v>1.4056433403273976</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8894,7 +10933,7 @@
         <v>0.10971879511778343</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8911,7 +10950,7 @@
         <v>1.7732882974285877</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8928,7 +10967,7 @@
         <v>1.445501103937568</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8945,7 +10984,7 @@
         <v>1.7765186664712374</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8962,7 +11001,7 @@
         <v>1.5073092059398596</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8979,7 +11018,7 @@
         <v>1.8979987392511855</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8996,7 +11035,7 @@
         <v>1.3084514843539994</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -9013,7 +11052,7 @@
         <v>1.4642111448100277</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -9030,7 +11069,7 @@
         <v>1.1378205891217885</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -9047,7 +11086,7 @@
         <v>0.78901798347081387</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -9064,7 +11103,7 @@
         <v>1.0402475383360312</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -9081,7 +11120,7 @@
         <v>1.8000429025143403</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -9098,7 +11137,7 @@
         <v>1.8814624152619479</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -9115,7 +11154,7 @@
         <v>1.7981516593628752</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -9132,7 +11171,7 @@
         <v>1.6415752679214748</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -9149,7 +11188,7 @@
         <v>1.4286627240302316</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9166,7 +11205,7 @@
         <v>1.2846325452522318</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9183,7 +11222,7 @@
         <v>1.0866421963683792</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9200,7 +11239,7 @@
         <v>1.3554640631351067</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -9217,7 +11256,7 @@
         <v>1.5353449585237264</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9234,7 +11273,7 @@
         <v>1.2004154080717568</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9251,7 +11290,7 @@
         <v>1.4531018821504182</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9268,7 +11307,7 @@
         <v>1.6040702366914397</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9285,7 +11324,7 @@
         <v>1.1884954491004123</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9302,7 +11341,7 @@
         <v>1.0709816314784117</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9319,7 +11358,7 @@
         <v>1.2390239177776892</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9336,7 +11375,7 @@
         <v>1.830028231238358</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9353,7 +11392,7 @@
         <v>1.6716425722094157</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9370,7 +11409,7 @@
         <v>1.5175302683561738</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9387,7 +11426,7 @@
         <v>1.4732121332886181</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9404,7 +11443,7 @@
         <v>1.2527161472736881</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9421,7 +11460,7 @@
         <v>1.7498563069145805</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9438,7 +11477,7 @@
         <v>1.8349521343653288</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -9455,7 +11494,7 @@
         <v>1.7001683160295251</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -9472,7 +11511,7 @@
         <v>1.4508435325106404</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9489,7 +11528,7 @@
         <v>1.094224281152961</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9506,7 +11545,7 @@
         <v>0.14661596696146792</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9523,7 +11562,7 @@
         <v>0.22957715548536628</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9540,7 +11579,7 @@
         <v>6.5125664174488826E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9557,7 +11596,7 @@
         <v>0.72847130750880174</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9574,7 +11613,7 @@
         <v>0.75757368459826546</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9591,7 +11630,7 @@
         <v>1.604205494588874</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9608,7 +11647,7 @@
         <v>1.0738690116503382</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9625,7 +11664,7 @@
         <v>1.3567219012296272</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9642,7 +11681,7 @@
         <v>1.2376804915059334</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9659,7 +11698,7 @@
         <v>1.4269342521202204</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9676,7 +11715,7 @@
         <v>1.0495302558657689</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9693,7 +11732,7 @@
         <v>1.3590949721487848</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9710,7 +11749,7 @@
         <v>1.4039821998175896</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9727,7 +11766,7 @@
         <v>1.4054253310675509</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9744,7 +11783,7 @@
         <v>1.0556454844953425</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9761,7 +11800,7 @@
         <v>0.17258362303803726</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9778,7 +11817,7 @@
         <v>0.9334589228561424</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9795,7 +11834,7 @@
         <v>0.28857310182659029</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9812,7 +11851,7 @@
         <v>0.94907991663776603</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -9829,7 +11868,7 @@
         <v>0.31249660810728008</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -9846,7 +11885,7 @@
         <v>0.23156751371292555</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -9863,7 +11902,7 @@
         <v>0.50550821439693516</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -9880,7 +11919,7 @@
         <v>0.8983270617104212</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -9897,7 +11936,7 @@
         <v>0.84513133185670264</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -9914,7 +11953,7 @@
         <v>0.82049686260290378</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -9931,7 +11970,7 @@
         <v>0.56794546137280988</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -9948,7 +11987,7 @@
         <v>1.1599559496253806</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -9965,7 +12004,7 @@
         <v>0.72296289512246181</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -9982,7 +12021,7 @@
         <v>0.5618362481242527</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -9999,7 +12038,7 @@
         <v>1.1354981097892294</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10016,7 +12055,7 @@
         <v>0.76220054235329981</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -10033,7 +12072,7 @@
         <v>0.29876354109347153</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -10050,7 +12089,7 @@
         <v>0.49076487880636749</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -10067,7 +12106,7 @@
         <v>0.70800915602272463</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -10084,7 +12123,7 @@
         <v>0.38341845734174912</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -10101,7 +12140,7 @@
         <v>1.1881194777950814</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -10118,7 +12157,7 @@
         <v>0.68691496157377852</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -10135,7 +12174,7 @@
         <v>1.0516274213246346</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -10152,7 +12191,7 @@
         <v>0.29402573437816615</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -10169,7 +12208,7 @@
         <v>0.18080599884637569</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -10186,7 +12225,7 @@
         <v>0.39780511218829029</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -10203,7 +12242,7 @@
         <v>1.1114917178353574</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -10220,7 +12259,7 @@
         <v>0.13824622454153926</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -10237,7 +12276,7 @@
         <v>0.7256364184985854</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -10254,7 +12293,7 @@
         <v>1.0177364071695263</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -10271,7 +12310,7 @@
         <v>1.1120359784331706</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -10288,7 +12327,7 @@
         <v>0.23667481418711367</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -10305,7 +12344,7 @@
         <v>0.71374863372742692</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -10322,7 +12361,7 @@
         <v>1.0524353247066147</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -10339,7 +12378,7 @@
         <v>0.67550035992492996</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -10356,7 +12395,7 @@
         <v>4.6276486981125395E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -10373,7 +12412,7 @@
         <v>0.40830156306657944</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -10390,7 +12429,7 @@
         <v>0.91438494871079312</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -10407,7 +12446,7 @@
         <v>1.1405638115600636</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -10424,7 +12463,7 @@
         <v>0.50884060950174481</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -10441,7 +12480,7 @@
         <v>0.16157467898548802</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -10458,7 +12497,7 @@
         <v>0.29044603333746971</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -10475,7 +12514,7 @@
         <v>0.2015901217414566</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -10492,7 +12531,7 @@
         <v>1.0334286934764338</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -10509,7 +12548,7 @@
         <v>0.75996371818450914</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -10526,7 +12565,7 @@
         <v>6.9293492900449866E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -10543,7 +12582,7 @@
         <v>0.29226398989160374</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -10560,7 +12599,7 @@
         <v>0.65005955628224987</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -10577,7 +12616,7 @@
         <v>0.10883226548444884</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -10594,7 +12633,7 @@
         <v>0.85282343127387039</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -10611,7 +12650,7 @@
         <v>0.95721052066523293</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -10628,7 +12667,7 @@
         <v>0.81307273972278904</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -10645,7 +12684,7 @@
         <v>0.86424317711947773</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -10662,7 +12701,7 @@
         <v>0.5121723897989735</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -10679,7 +12718,7 @@
         <v>0.19378866939650505</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -10696,7 +12735,7 @@
         <v>0.2173816391125557</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -10713,7 +12752,7 @@
         <v>5.5418613709771337E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -10730,7 +12769,7 @@
         <v>0.42745927146030455</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -10747,7 +12786,7 @@
         <v>1.024491882899849</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -10764,7 +12803,7 @@
         <v>0.95366482233990246</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -10781,7 +12820,7 @@
         <v>0.32037559609159838</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -10798,7 +12837,7 @@
         <v>0.31437724956624252</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -10815,7 +12854,7 @@
         <v>0.439421616735587</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -10832,7 +12871,7 @@
         <v>0.54033727107687091</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -10849,7 +12888,7 @@
         <v>0.88057176909393797</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -10866,7 +12905,7 @@
         <v>0.93474704466182024</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -10883,7 +12922,7 @@
         <v>0.78448762770878466</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -10900,7 +12939,7 @@
         <v>0.92728929131694227</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -10917,7 +12956,7 @@
         <v>0.94475170921040175</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -10934,7 +12973,7 @@
         <v>0.82909317310660124</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10951,7 +12990,7 @@
         <v>0.23783725024829</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10968,7 +13007,7 @@
         <v>6.4765027355567772E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10985,7 +13024,7 @@
         <v>0.71109648217325427</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -11002,7 +13041,7 @@
         <v>0.15492730203634877</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -11019,7 +13058,7 @@
         <v>0.60198759157836901</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -11036,7 +13075,7 @@
         <v>0.73139042122571307</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -11053,7 +13092,7 @@
         <v>0.7040735162836711</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -11070,7 +13109,7 @@
         <v>0.33234236725663718</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -11087,7 +13126,7 @@
         <v>0.59626527789515438</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -11104,7 +13143,7 @@
         <v>0.85953688278936813</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -11121,7 +13160,7 @@
         <v>0.9880186902234902</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -11138,7 +13177,7 @@
         <v>0.73374963365451873</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -11155,7 +13194,7 @@
         <v>0.18630869320143542</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -11172,7 +13211,7 @@
         <v>0.34889967783239417</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -11189,7 +13228,7 @@
         <v>6.2230942035318385E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -11206,7 +13245,7 @@
         <v>0.74908010752732734</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -11223,7 +13262,7 @@
         <v>0.69832679983866308</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -11240,7 +13279,7 @@
         <v>0.39426688502562207</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -11257,7 +13296,7 @@
         <v>0.77081363024102256</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -11274,7 +13313,7 @@
         <v>0.914816398094771</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -11293,6 +13332,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>